--- a/my-app/static/downloads-excel/Reportes_DGSP_2024_10_08.xlsx
+++ b/my-app/static/downloads-excel/Reportes_DGSP_2024_10_08.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I6"/>
+  <dimension ref="A1:I7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -471,81 +471,81 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>JOSE MIGUEL LONA HERNANDEZ</t>
+          <t>oscar</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>ADUANAS</t>
+          <t>INHIBIDORES</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Leon</t>
+          <t>Irapuato</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>BOBIC</t>
+          <t>isiiji</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>jlonah@guanajuato.gob.mx</t>
+          <t>mo@oscatr.com</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>MAQUINA RAYOS X ADUANA VEHICULAR SE DAÑO EL CPU, SE REVISO DE MANERA INFORMAL CON PROVEEDOR, CHECARLO CON EMPRESA PARA COTIZACION</t>
+          <t>ksksksk</t>
         </is>
       </c>
       <c r="G2" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>kkskksks</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>08 de Oct 2024 12:40 PM</t>
+          <t>08 de Oct 2024 04:43 PM</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>JOEL MOSQUEDA PUENTES</t>
+          <t>JOSE MIGUEL LONA HERNANDEZ</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>TELEFONIA PPLS</t>
+          <t>ADUANAS</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Celaya</t>
+          <t>Leon</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>SERMEX</t>
+          <t>BOBIC</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>jmosquedap@guanajuato.gob.mx</t>
+          <t>jlonah@guanajuato.gob.mx</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Se reporta Telefonía PPL´S en Centro Celaya, en total son 4 teléfonos, ya que no dan señal, se han hecho varias pruebas pero ya no prende el LED, esto tiene aproximadamente desde el 27 de septiembre, se requiere revisión</t>
+          <t>MAQUINA RAYOS X ADUANA VEHICULAR SE DAÑO EL CPU, SE REVISO DE MANERA INFORMAL CON PROVEEDOR, CHECARLO CON EMPRESA PARA COTIZACION</t>
         </is>
       </c>
       <c r="G3" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H3" t="inlineStr">
         <is>
@@ -554,39 +554,39 @@
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>07 de Oct 2024 04:02 PM</t>
+          <t>08 de Oct 2024 12:40 PM</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>JESUS CORTES</t>
+          <t>JOEL MOSQUEDA PUENTES</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>ADUANAS</t>
+          <t>TELEFONIA PPLS</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>San Felipe</t>
+          <t>Celaya</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>BOBIC</t>
+          <t>SERMEX</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>jcortesj@guanajuato.gob.mx</t>
+          <t>jmosquedap@guanajuato.gob.mx</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>me fue informado vía telefónica por el área de seguridad, que el equipo de escaneo corporal, SOTER presentó un mal funcionamiento; siendo que, al querer escanear a una persona, éste no movió la plataforma por lo cual solo arrojó una imagen en negro, posterior ahí, la plataforma ha quedado estática, por lo cual no es posible llevar a cabo las revisiones corporales Se reinició el equipo, pero no completa el proceso de funcionamiento normal.</t>
+          <t>Se reporta Telefonía PPL´S en Centro Celaya, en total son 4 teléfonos, ya que no dan señal, se han hecho varias pruebas pero ya no prende el LED, esto tiene aproximadamente desde el 27 de septiembre, se requiere revisión</t>
         </is>
       </c>
       <c r="G4" t="n">
@@ -599,85 +599,130 @@
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>07 de Oct 2024 10:56 AM</t>
+          <t>07 de Oct 2024 04:02 PM</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>ALEJANDRO ROSENDO GONZALEZ</t>
+          <t>JESUS CORTES</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>TELEFONIA PPLS</t>
+          <t>ADUANAS</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>San Miguel</t>
+          <t>San Felipe</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>SEGMAN</t>
+          <t>BOBIC</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>agonzalezv@guanajuato.gob.mx</t>
+          <t>jcortesj@guanajuato.gob.mx</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>FALLA EN LA TELEFONIA DE LOS DORMITORIOS, SE CONTACTA A PROVEEDOR PARA CHECAR, EN TOTAL SON 3 TELEFONOS</t>
+          <t>me fue informado vía telefónica por el área de seguridad, que el equipo de escaneo corporal, SOTER presentó un mal funcionamiento; siendo que, al querer escanear a una persona, éste no movió la plataforma por lo cual solo arrojó una imagen en negro, posterior ahí, la plataforma ha quedado estática, por lo cual no es posible llevar a cabo las revisiones corporales Se reinició el equipo, pero no completa el proceso de funcionamiento normal.</t>
         </is>
       </c>
       <c r="G5" t="n">
         <v>1</v>
       </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>03 de Oct 2024 03:00 PM</t>
+          <t>07 de Oct 2024 10:56 AM</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
+          <t>ALEJANDRO ROSENDO GONZALEZ</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>TELEFONIA PPLS</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>San Miguel</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>SEGMAN</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>agonzalezv@guanajuato.gob.mx</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>FALLA EN LA TELEFONIA DE LOS DORMITORIOS, SE CONTACTA A PROVEEDOR PARA CHECAR, EN TOTAL SON 3 TELEFONOS</t>
+        </is>
+      </c>
+      <c r="G6" t="n">
+        <v>1</v>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>03 de Oct 2024 03:00 PM</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
           <t>JUAN GABRIEL CORRAL JIMENEZ</t>
         </is>
       </c>
-      <c r="B6" t="inlineStr">
+      <c r="B7" t="inlineStr">
         <is>
           <t>TELEFONIA PPLS</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
+      <c r="C7" t="inlineStr">
         <is>
           <t>Salamanca</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="D7" t="inlineStr">
         <is>
           <t>BOBIC</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="E7" t="inlineStr">
         <is>
           <t>jcorralg@guanajuato.gob.mx</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F7" t="inlineStr">
         <is>
           <t>El PPL Juan Manuel Pérez Estrada que se encuentra en el Dormitorio 1 y con número de PIN 70482, Clave *8477,  no puede comunicarse al siguiente número telefónico:  4794078392  y  El PPL Jesus Candelario Razo López que se encuentra en el Dormitorio 1 y con número de PIN 13518, Clave *1919,  no puede comunicarse al siguiente número telefónico:  4641679632 y 4642000662  Por tal motivo solicitamos su apoyo para hacer lo referente a quien corresponda y solventar dicha petición.</t>
         </is>
       </c>
-      <c r="G6" t="n">
+      <c r="G7" t="n">
         <v>2</v>
       </c>
-      <c r="I6" t="inlineStr">
+      <c r="I7" t="inlineStr">
         <is>
           <t>30 de Sep 2024 05:19 PM</t>
         </is>
